--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-desired-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-desired-masking-0.35/avg_0.003_scores.xlsx
@@ -1232,25 +1232,25 @@
         <v>30</v>
       </c>
       <c r="K12">
-        <v>0.7456140350877193</v>
+        <v>0.7112970711297071</v>
       </c>
       <c r="L12">
         <v>170</v>
       </c>
       <c r="M12">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="N12">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1358,25 +1358,25 @@
         <v>33</v>
       </c>
       <c r="K15">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="L15">
         <v>221</v>
       </c>
       <c r="M15">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="N15">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:17">
